--- a/old_database/crypto/library/library_0731.xlsx
+++ b/old_database/crypto/library/library_0731.xlsx
@@ -52,7 +52,7 @@
     <t>04.10.12</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0731</t>
   </si>
   <si>
     <t>07.02.12</t>
